--- a/Input_File/client_site.xlsx
+++ b/Input_File/client_site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spv\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spv\eclipse-workspace\Broken_images_Links\Input_File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C1F521-DB8C-4A5C-817F-95270834589A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022965F8-D4A7-4905-9118-4935348DD7DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3BCA9752-AD6E-47F3-A092-1292F6497DF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3BCA9752-AD6E-47F3-A092-1292F6497DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>https://us.allegion.com/en/home/products/brands/advantage.html</t>
+    <t>https://us.allegion.com/en/home.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/brands/schlage.html</t>
   </si>
 </sst>
 </file>
@@ -395,9 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB50C8-7697-4302-9A01-590AE36C5834}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -406,7 +411,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{AB4C5EE0-21CE-4876-9A88-C54E2C63D0B9}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{0AB4F65A-AA07-4306-B52D-4CB4408DC7BA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>